--- a/Output Files/Forecasts/All Forecast Methodologies Forecasts (Quarterly).xlsx
+++ b/Output Files/Forecasts/All Forecast Methodologies Forecasts (Quarterly).xlsx
@@ -467,7 +467,7 @@
         <v>-0.001600300393643042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001469593960791826</v>
+        <v>-0.003403153270483017</v>
       </c>
       <c r="D2" t="n">
         <v>0.00314188360054235</v>
@@ -481,7 +481,7 @@
         <v>0.0007392540322719073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007868651300668716</v>
+        <v>-0.003373303450644016</v>
       </c>
       <c r="D3" t="n">
         <v>0.002519662655094734</v>
@@ -495,7 +495,7 @@
         <v>0.002421817988421017</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.038204785203561e-05</v>
+        <v>-0.003060046583414078</v>
       </c>
       <c r="D4" t="n">
         <v>-8.993635934029243e-05</v>
@@ -509,7 +509,7 @@
         <v>0.003631886638747452</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0005845605628564954</v>
+        <v>-0.002413512440398335</v>
       </c>
       <c r="D5" t="n">
         <v>-0.004665743277483259</v>
@@ -523,7 +523,7 @@
         <v>0.004502145467929859</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0009361092816106975</v>
+        <v>-0.001893736654892564</v>
       </c>
       <c r="D6" t="n">
         <v>0.01769072208984657</v>
@@ -537,7 +537,7 @@
         <v>0.005128019404557855</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.001295285997912288</v>
+        <v>-0.001539545832201838</v>
       </c>
       <c r="D7" t="n">
         <v>0.03047292616031028</v>
@@ -551,7 +551,7 @@
         <v>0.005578136279463035</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001697024912573397</v>
+        <v>-0.001513069728389382</v>
       </c>
       <c r="D8" t="n">
         <v>0.02776690412336347</v>
@@ -565,7 +565,7 @@
         <v>0.005901851950011605</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.002130517270416021</v>
+        <v>-0.00170249561779201</v>
       </c>
       <c r="D9" t="n">
         <v>0.01078196781061846</v>
@@ -579,7 +579,7 @@
         <v>0.006134662229299147</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002549631288275123</v>
+        <v>-0.002028033835813403</v>
       </c>
       <c r="D10" t="n">
         <v>-0.002629819956966983</v>
@@ -593,7 +593,7 @@
         <v>0.006302095044800771</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00292328791692853</v>
+        <v>-0.002401753794401884</v>
       </c>
       <c r="D11" t="n">
         <v>-0.02036692024077436</v>
